--- a/configTools/Luban/ConfigRoot/Datas/sign.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/sign.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sign_daily" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sign_acc累计签到" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -449,10 +449,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -826,6 +826,16 @@
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>3;0;3000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>3;0;3100</t>
         </is>
       </c>
     </row>
@@ -841,10 +851,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -1312,6 +1322,19 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>2;0;310</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/configTools/Luban/ConfigRoot/Datas/sign.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/sign.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sign_daily" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sign_acc累计签到" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sign_acc7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sign_acc累计签到" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -49,6 +50,20 @@
       <charset val="134"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="4">
@@ -100,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,6 +132,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -851,9 +872,590 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="10.8"/>
+  <cols>
+    <col width="11.44140625" customWidth="1" style="2" min="1" max="2"/>
+    <col width="26" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" customFormat="1" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>group_id</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>reward</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.2" customFormat="1" customHeight="1" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>##type</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>(list#sep=|),vector3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.2" customFormat="1" customHeight="1" s="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>##group</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.2" customFormat="1" customHeight="1" s="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>辅助主键id</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>星期id</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>奖励组id</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>奖励</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>2;0;10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>2;0;20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>2;0;30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>2;0;40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>2;0;50</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>2;0;60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>2;0;70</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>2;0;10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>2;0;20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2;0;30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>2;0;40</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2;0;50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>2;0;60</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2;0;70</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2;0;10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>2;0;20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>2;0;30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>2;0;40</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>2;0;50</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>2;0;60</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2;0;70</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>2;0;10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>2;0;20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>2;0;30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>2;0;40</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>2;0;50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>2;0;60</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>2;0;70</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
